--- a/biology/Botanique/Saccharina/Saccharina.xlsx
+++ b/biology/Botanique/Saccharina/Saccharina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharina est un genre d'algues brunes de la famille des Laminariaceae.
 Saccharina japonica (autrefois rangée en tant que Lamaniria japonica) est cultivée sous le nom de konbu au Japon.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (31 oct. 2012)[1] et World Register of Marine Species                               (31 oct. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) :
 Saccharina angustata (Kjellman) C.E.Lane, C.Mayes, Druehl &amp; G.W.Saunders, 2006
 Saccharina bongardiana (Postels &amp; Ruprecht) Selivanova, Zhigadlova &amp; G.I.Hansen, 2007
 Saccharina cichorioides (Miyabe) C.E.Lane, C.Mayes, Druehl &amp; G.W.Saunders, 2006
@@ -536,9 +550,9 @@
 Saccharina sculpera (Miyabe) C.E.Lane, C.Mayes, Druehl &amp; G.W.Saunders, 2006
 Saccharina sessilis (C.Agardh) Kuntze, 1891
 Saccharina yendoana (Miyabe) C.E.Lane, C.Mayes, Druehl &amp; G.W.Saunders, 2006
-Selon Catalogue of Life                                  (31 oct. 2012)[3] :
+Selon Catalogue of Life                                  (31 oct. 2012) :
 Saccharina plana
-Selon NCBI  (31 oct. 2012)[4] :
+Selon NCBI  (31 oct. 2012) :
 Saccharina angustata
 Saccharina bongardiana
 Saccharina cichorioides
